--- a/common/reporter/data.xlsx
+++ b/common/reporter/data.xlsx
@@ -700,10 +700,10 @@
   <dimension ref="A1:L1037"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>

--- a/common/reporter/data.xlsx
+++ b/common/reporter/data.xlsx
@@ -580,13 +580,13 @@
     <t xml:space="preserve">29/09/2000</t>
   </si>
   <si>
-    <t xml:space="preserve">22/02/2000</t>
+    <t xml:space="preserve">25/02/2000</t>
   </si>
   <si>
     <t xml:space="preserve">Phạm Hữu Vĩnh</t>
   </si>
   <si>
-    <t xml:space="preserve">23/02/2000</t>
+    <t xml:space="preserve">26/02/2000</t>
   </si>
 </sst>
 </file>
@@ -699,11 +699,11 @@
   </sheetPr>
   <dimension ref="A1:L1037"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
